--- a/data/trans_orig/P70C2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>219259</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>197762</v>
+        <v>199749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>241181</v>
+        <v>240850</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5867886990077092</v>
+        <v>0.5867886990077091</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5292567455401168</v>
+        <v>0.5345743261328093</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6454569025462048</v>
+        <v>0.6445689926137547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>234</v>
@@ -762,19 +762,19 @@
         <v>183812</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>168746</v>
+        <v>167642</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>200528</v>
+        <v>201148</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.551353451433106</v>
+        <v>0.5513534514331061</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5061614343881768</v>
+        <v>0.5028522855012981</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6014929738375089</v>
+        <v>0.6033555485846746</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>428</v>
@@ -783,19 +783,19 @@
         <v>403071</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>377449</v>
+        <v>377515</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>426855</v>
+        <v>430069</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5700803603287644</v>
+        <v>0.5700803603287645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5338419725437611</v>
+        <v>0.5339344229059508</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6037183410281692</v>
+        <v>0.608263742382119</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>78791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>63153</v>
+        <v>61824</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97457</v>
+        <v>96953</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2108641231837426</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1690119335040645</v>
+        <v>0.1654557528820303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2608166098139473</v>
+        <v>0.2594675127651156</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>102</v>
@@ -833,19 +833,19 @@
         <v>68325</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56680</v>
+        <v>55684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81751</v>
+        <v>80947</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2049445453268385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1700139175700432</v>
+        <v>0.1670276882263599</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2452156065319938</v>
+        <v>0.2428059989240103</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>174</v>
@@ -854,19 +854,19 @@
         <v>147117</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126921</v>
+        <v>125119</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>169231</v>
+        <v>169428</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2080729387434109</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1795091370908662</v>
+        <v>0.1769610263782256</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2393501788078337</v>
+        <v>0.2396286944453367</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>29113</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18009</v>
+        <v>18663</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45603</v>
+        <v>43601</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07791400007453617</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0481957944211391</v>
+        <v>0.04994671630627364</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1220453781217041</v>
+        <v>0.1166871558627193</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -904,19 +904,19 @@
         <v>27974</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19437</v>
+        <v>20647</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36945</v>
+        <v>37690</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.08391065117261842</v>
+        <v>0.08391065117261844</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05830237460474303</v>
+        <v>0.06193100793763844</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1108187721890401</v>
+        <v>0.1130523015526551</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>63</v>
@@ -925,19 +925,19 @@
         <v>57088</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44037</v>
+        <v>44453</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74873</v>
+        <v>73355</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08074152589540937</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06228306125864443</v>
+        <v>0.06287214533991807</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1058955297649431</v>
+        <v>0.1037492686620727</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>28667</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18801</v>
+        <v>18804</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43068</v>
+        <v>41363</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07671909606848254</v>
+        <v>0.07671909606848255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05031467195997848</v>
+        <v>0.05032267869246722</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1152598306993425</v>
+        <v>0.1106966029959111</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -975,19 +975,19 @@
         <v>26262</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18918</v>
+        <v>18543</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36041</v>
+        <v>35485</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07877550652555922</v>
+        <v>0.07877550652555923</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05674456330936392</v>
+        <v>0.05562071953543633</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1081073237428736</v>
+        <v>0.1064393659337307</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -996,19 +996,19 @@
         <v>54929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42224</v>
+        <v>40886</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71023</v>
+        <v>71014</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07768872954733501</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05971844336619279</v>
+        <v>0.0578263154884515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1004503293829587</v>
+        <v>0.1004383180275455</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>10827</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5047</v>
+        <v>5059</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19867</v>
+        <v>20373</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02897432549666045</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01350697879900408</v>
+        <v>0.0135382783024377</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05316830300459915</v>
+        <v>0.05452198533310184</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -1046,19 +1046,19 @@
         <v>20878</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13704</v>
+        <v>13876</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29355</v>
+        <v>32354</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0626255597015301</v>
+        <v>0.06262555970153011</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04110664975203201</v>
+        <v>0.04162076524690366</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08805148975838212</v>
+        <v>0.09704869827638359</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -1067,19 +1067,19 @@
         <v>31705</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23198</v>
+        <v>20869</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44380</v>
+        <v>43198</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.04484147068523897</v>
+        <v>0.04484147068523896</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03280975180595819</v>
+        <v>0.02951527548092114</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06276870117667833</v>
+        <v>0.0610967238556502</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>7002</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2599</v>
+        <v>2640</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15130</v>
+        <v>15183</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01873975616886905</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006954316640599483</v>
+        <v>0.00706527010632169</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04049219541353735</v>
+        <v>0.04063410648196551</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1117,19 +1117,19 @@
         <v>6131</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2851</v>
+        <v>2838</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11472</v>
+        <v>11701</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01839028584034774</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008550857175513529</v>
+        <v>0.008512464887807254</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03440983850750624</v>
+        <v>0.03509655983960683</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -1138,19 +1138,19 @@
         <v>13133</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7483</v>
+        <v>7046</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23888</v>
+        <v>22709</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01857497479984142</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01058368023246163</v>
+        <v>0.009964761490516302</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03378542869122037</v>
+        <v>0.03211855732899352</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>167238</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>145947</v>
+        <v>145227</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>185508</v>
+        <v>188058</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5311055286956887</v>
+        <v>0.5311055286956888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4634895434233562</v>
+        <v>0.4612034437044167</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5891242527728919</v>
+        <v>0.5972228152898974</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>207</v>
@@ -1263,19 +1263,19 @@
         <v>159735</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>144605</v>
+        <v>144868</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>174187</v>
+        <v>173032</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5893655399854545</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.533541501063508</v>
+        <v>0.5345112639182373</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6426876178727471</v>
+        <v>0.6384246898348608</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>349</v>
@@ -1284,19 +1284,19 @@
         <v>326974</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>301834</v>
+        <v>302203</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>350728</v>
+        <v>351964</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5580550555312063</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5151486454277761</v>
+        <v>0.5157778581228353</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5985968036927596</v>
+        <v>0.6007057474344931</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>82414</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>66701</v>
+        <v>66737</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>100372</v>
+        <v>100109</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.261726332134878</v>
+        <v>0.2617263321348781</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2118266184417083</v>
+        <v>0.2119384060655347</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3187546448418492</v>
+        <v>0.3179193942104264</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>91</v>
@@ -1334,19 +1334,19 @@
         <v>63377</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51683</v>
+        <v>51934</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76048</v>
+        <v>75901</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2338393181733635</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1906933404250004</v>
+        <v>0.1916178525137359</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2805912783542789</v>
+        <v>0.2800467131526886</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>167</v>
@@ -1355,19 +1355,19 @@
         <v>145792</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>125812</v>
+        <v>125460</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>167824</v>
+        <v>168519</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2488265435066135</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2147261063022166</v>
+        <v>0.2141267250272975</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2864301561404216</v>
+        <v>0.2876153245275755</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>22614</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15159</v>
+        <v>13906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34987</v>
+        <v>34804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07181561411293703</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04813984688196341</v>
+        <v>0.04416336110034721</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1111110102725597</v>
+        <v>0.1105273058011891</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1405,19 +1405,19 @@
         <v>14961</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9303</v>
+        <v>9480</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22227</v>
+        <v>22019</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05520155255078232</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03432583735301703</v>
+        <v>0.0349779492991873</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08200894010712796</v>
+        <v>0.08124286768905978</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -1426,19 +1426,19 @@
         <v>37575</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27115</v>
+        <v>27579</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51727</v>
+        <v>51884</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06413039250030614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04627809168567801</v>
+        <v>0.04706929858904958</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08828452629833949</v>
+        <v>0.08855228568822125</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>25140</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15060</v>
+        <v>15179</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37363</v>
+        <v>38624</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0798377290912089</v>
+        <v>0.07983772909120891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04782576811152078</v>
+        <v>0.0482051214861501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1186560969617419</v>
+        <v>0.122659587044373</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1476,19 +1476,19 @@
         <v>16726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10187</v>
+        <v>10656</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26001</v>
+        <v>25653</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06171337950881183</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03758665589132854</v>
+        <v>0.03931788297533254</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09593538527700604</v>
+        <v>0.09464980881229772</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>39</v>
@@ -1497,19 +1497,19 @@
         <v>41866</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30308</v>
+        <v>28609</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58511</v>
+        <v>57190</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0714538885351582</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05172662943706732</v>
+        <v>0.0488285753597149</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09986269383480319</v>
+        <v>0.09760682977984378</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>10286</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4929</v>
+        <v>5227</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18286</v>
+        <v>19136</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03266636886696511</v>
+        <v>0.03266636886696512</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01565179844329514</v>
+        <v>0.01659945543200464</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05807067500195816</v>
+        <v>0.06077227168878127</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -1547,19 +1547,19 @@
         <v>11356</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6353</v>
+        <v>6182</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18202</v>
+        <v>17850</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04190020335091208</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02344131560473649</v>
+        <v>0.02280767228450964</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06715847648658557</v>
+        <v>0.06586081269131422</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>23</v>
@@ -1568,19 +1568,19 @@
         <v>21642</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>13948</v>
+        <v>14185</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>31812</v>
+        <v>32953</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.03693769433894576</v>
+        <v>0.03693769433894575</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02380464567712276</v>
+        <v>0.02421028654004552</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05429423545009375</v>
+        <v>0.05624203129435067</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>7195</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2643</v>
+        <v>2589</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15512</v>
+        <v>15951</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02284842709832222</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008392941419542959</v>
+        <v>0.008221113500474331</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04926170026023459</v>
+        <v>0.05065587046461851</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1618,19 +1618,19 @@
         <v>4873</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1777</v>
+        <v>1859</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9891</v>
+        <v>10257</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01798000643067575</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006556846750272352</v>
+        <v>0.006860550795410514</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03649318855361558</v>
+        <v>0.03784544660514843</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1639,19 +1639,19 @@
         <v>12068</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6483</v>
+        <v>6267</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21566</v>
+        <v>21570</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02059642558777026</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01106498430617656</v>
+        <v>0.01069600987382299</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03680778871079227</v>
+        <v>0.0368133842737645</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>135282</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>115531</v>
+        <v>117843</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>154273</v>
+        <v>154022</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5017886827441712</v>
+        <v>0.5017886827441713</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4285287537707747</v>
+        <v>0.4371064330711514</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5722305578786369</v>
+        <v>0.5713009582867549</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>58</v>
@@ -1764,19 +1764,19 @@
         <v>42681</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>35082</v>
+        <v>34475</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51427</v>
+        <v>50692</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.5271691695851732</v>
+        <v>0.5271691695851735</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4333113943280652</v>
+        <v>0.4258187420855222</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6351941726310516</v>
+        <v>0.6261201175434901</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>171</v>
@@ -1785,19 +1785,19 @@
         <v>177962</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>157899</v>
+        <v>157767</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>197690</v>
+        <v>196800</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.507650313908079</v>
+        <v>0.5076503139080789</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4504171883467815</v>
+        <v>0.4500426534009551</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5639253844730876</v>
+        <v>0.5613854577229632</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>60159</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46202</v>
+        <v>46462</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75511</v>
+        <v>75528</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2231437824731382</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1713721323319829</v>
+        <v>0.1723363972877316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2800862314701574</v>
+        <v>0.2801476411636777</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -1835,19 +1835,19 @@
         <v>17041</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11580</v>
+        <v>11096</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24240</v>
+        <v>23620</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2104874304867151</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1430254091231002</v>
+        <v>0.1370537733208096</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2994043222362462</v>
+        <v>0.2917381874487487</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -1856,19 +1856,19 @@
         <v>77201</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61877</v>
+        <v>62362</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93767</v>
+        <v>93621</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.220220794128204</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1765075105396393</v>
+        <v>0.1778906567538205</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2674757543994373</v>
+        <v>0.2670599789685008</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>14783</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8420</v>
+        <v>8434</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24737</v>
+        <v>25192</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.054834902113349</v>
+        <v>0.05483490211334901</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03123122209025259</v>
+        <v>0.03128232831229028</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09175326871535494</v>
+        <v>0.09344280985244793</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1906,19 +1906,19 @@
         <v>2711</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>959</v>
+        <v>760</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6266</v>
+        <v>5815</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0334804465084898</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01184384625560795</v>
+        <v>0.00938541434195869</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07739083894714253</v>
+        <v>0.07182656911130476</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -1927,19 +1927,19 @@
         <v>17494</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10826</v>
+        <v>10765</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27353</v>
+        <v>26886</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.04990308408929463</v>
+        <v>0.04990308408929462</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0308806034033237</v>
+        <v>0.03070906582014362</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07802656071024873</v>
+        <v>0.07669341140753257</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>25402</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16123</v>
+        <v>16270</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40370</v>
+        <v>38080</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09422323910895657</v>
+        <v>0.09422323910895658</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05980537223316058</v>
+        <v>0.06034928105483513</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1497423201928016</v>
+        <v>0.1412486408426784</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1977,19 +1977,19 @@
         <v>8654</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4843</v>
+        <v>4570</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14806</v>
+        <v>14236</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.106888690218621</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05981705821094793</v>
+        <v>0.05644571861845379</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1828810698068934</v>
+        <v>0.1758356585931964</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>33</v>
@@ -1998,19 +1998,19 @@
         <v>34056</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24194</v>
+        <v>23560</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>47933</v>
+        <v>49329</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.09714832889917388</v>
+        <v>0.09714832889917385</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06901630235066238</v>
+        <v>0.06720595468624112</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1367312120908964</v>
+        <v>0.1407155930163656</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>19373</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11706</v>
+        <v>11472</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31221</v>
+        <v>32727</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.07185989888333376</v>
+        <v>0.07185989888333379</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04341965148454909</v>
+        <v>0.04255115365557197</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1158054027035683</v>
+        <v>0.121390042211041</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2048,19 +2048,19 @@
         <v>8751</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3890</v>
+        <v>3741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18769</v>
+        <v>18951</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1080936071462623</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04804627832818349</v>
+        <v>0.04620726558457041</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2318277766854742</v>
+        <v>0.2340686853103854</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2069,19 +2069,19 @@
         <v>28125</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18034</v>
+        <v>17468</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43390</v>
+        <v>41951</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08022808483927898</v>
+        <v>0.080228084839279</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05144241009012634</v>
+        <v>0.04982737631582235</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1237729583213822</v>
+        <v>0.1196674832215331</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>14599</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7992</v>
+        <v>8364</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25314</v>
+        <v>25263</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05414949467705141</v>
+        <v>0.05414949467705143</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02964327817885935</v>
+        <v>0.03102449873568249</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09389415889040498</v>
+        <v>0.09370589347341211</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3588</v>
+        <v>4014</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01388065605473859</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04431590635138217</v>
+        <v>0.04957674201371685</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -2140,19 +2140,19 @@
         <v>15722</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9336</v>
+        <v>9228</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27334</v>
+        <v>27758</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.04484939413596957</v>
+        <v>0.04484939413596956</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02663264168937227</v>
+        <v>0.02632244519086507</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07797231212503099</v>
+        <v>0.07918081601059516</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>254721</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>227298</v>
+        <v>227810</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>285601</v>
+        <v>282129</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4144598710190214</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3698398071315604</v>
+        <v>0.3706735258672625</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4647050236883459</v>
+        <v>0.4590567100605908</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>260</v>
@@ -2265,19 +2265,19 @@
         <v>206038</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>184326</v>
+        <v>187532</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>225355</v>
+        <v>225474</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4357418448566813</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3898227750173209</v>
+        <v>0.3966032050914671</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4765930834061015</v>
+        <v>0.4768449773514117</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>474</v>
@@ -2286,19 +2286,19 @@
         <v>460759</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>429343</v>
+        <v>425221</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>496826</v>
+        <v>492018</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4237138672930516</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3948231967129583</v>
+        <v>0.3910329377017697</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4568811921591817</v>
+        <v>0.452459281637658</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>136678</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114260</v>
+        <v>115632</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>160910</v>
+        <v>159995</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2223899218399561</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1859140529405814</v>
+        <v>0.1881466044405432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2618192716039818</v>
+        <v>0.2603297994750308</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>163</v>
@@ -2336,19 +2336,19 @@
         <v>113390</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>97547</v>
+        <v>99022</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>130849</v>
+        <v>131825</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2398033378878497</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2062987843482375</v>
+        <v>0.2094176026640445</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2767261476870785</v>
+        <v>0.2787905083477825</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>289</v>
@@ -2357,19 +2357,19 @@
         <v>250067</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>221793</v>
+        <v>223829</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>279504</v>
+        <v>278824</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2299617612029098</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.20396041295974</v>
+        <v>0.2058334430764799</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.257031435634441</v>
+        <v>0.256406795081018</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>78538</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>60324</v>
+        <v>60257</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>99940</v>
+        <v>99506</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1277904735221945</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09815419067788254</v>
+        <v>0.09804435218893179</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1626145066383312</v>
+        <v>0.16190715731175</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>55</v>
@@ -2407,19 +2407,19 @@
         <v>42621</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>32525</v>
+        <v>31734</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>55318</v>
+        <v>54940</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0901364843836753</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06878514654811602</v>
+        <v>0.06711230817724381</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.116989975934188</v>
+        <v>0.1161900084998026</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>119</v>
@@ -2428,19 +2428,19 @@
         <v>121159</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>100516</v>
+        <v>101527</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>144093</v>
+        <v>148253</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1114174679989181</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09243446207903984</v>
+        <v>0.09336374477113803</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1325074192614256</v>
+        <v>0.1363330153747754</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>72418</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>56516</v>
+        <v>57438</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>94584</v>
+        <v>92887</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1178322659539753</v>
+        <v>0.1178322659539752</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0919573682370127</v>
+        <v>0.09345763134791471</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1538983976465448</v>
+        <v>0.1511379617875263</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>75</v>
@@ -2478,19 +2478,19 @@
         <v>55214</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>44246</v>
+        <v>44239</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>69569</v>
+        <v>68732</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1167700419793213</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09357399803861963</v>
+        <v>0.09355848879265702</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1471277264223001</v>
+        <v>0.1453584713116577</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>137</v>
@@ -2499,19 +2499,19 @@
         <v>127632</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>106914</v>
+        <v>109103</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>151130</v>
+        <v>150863</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1173703813196544</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09831772531606249</v>
+        <v>0.1003310803741607</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1389792268511134</v>
+        <v>0.1387332136380785</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>47923</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>34704</v>
+        <v>34273</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>65962</v>
+        <v>65882</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07797593614386331</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05646679158625981</v>
+        <v>0.05576639677600258</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1073270565579688</v>
+        <v>0.1071969656751442</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>51</v>
@@ -2549,19 +2549,19 @@
         <v>40672</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30717</v>
+        <v>29679</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>53290</v>
+        <v>52445</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08601461760724892</v>
+        <v>0.08601461760724893</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06496215505955459</v>
+        <v>0.0627670401484324</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1127009041850457</v>
+        <v>0.1109129590428218</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>92</v>
@@ -2570,19 +2570,19 @@
         <v>88594</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>71406</v>
+        <v>72092</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>109616</v>
+        <v>107547</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.08147137923000447</v>
+        <v>0.0814713792300045</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0656649603097742</v>
+        <v>0.06629537063692885</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1008024671589631</v>
+        <v>0.09889984708965419</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>24308</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16197</v>
+        <v>15018</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38717</v>
+        <v>37262</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0395515315209894</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02635370120499503</v>
+        <v>0.02443606557865698</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06299672935222045</v>
+        <v>0.06062996795796733</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -2620,19 +2620,19 @@
         <v>14911</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9190</v>
+        <v>9552</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22367</v>
+        <v>23866</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03153367328522343</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01943631946933201</v>
+        <v>0.02020046505143618</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04730396169177777</v>
+        <v>0.05047278516077724</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -2641,19 +2641,19 @@
         <v>39218</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27489</v>
+        <v>27680</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>52520</v>
+        <v>54507</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03606514295546154</v>
+        <v>0.03606514295546155</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02527902466273177</v>
+        <v>0.02545455035892968</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04829721155263755</v>
+        <v>0.05012467672529906</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>170871</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>149446</v>
+        <v>152389</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>191784</v>
+        <v>191930</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5544233853616511</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4849077027558816</v>
+        <v>0.4944563892938131</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6222812228793639</v>
+        <v>0.6227558413042512</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>178</v>
@@ -2766,19 +2766,19 @@
         <v>135321</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>120004</v>
+        <v>119676</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>152765</v>
+        <v>150396</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4397694289882641</v>
+        <v>0.439769428988264</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.389991005941401</v>
+        <v>0.3889240744000567</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4964564940483585</v>
+        <v>0.4887588076027596</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>309</v>
@@ -2787,19 +2787,19 @@
         <v>306192</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>281530</v>
+        <v>280198</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>332425</v>
+        <v>333763</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4971416321880188</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4570993285384516</v>
+        <v>0.4549371133632722</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5397334545021415</v>
+        <v>0.5419061494610339</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>73676</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>57722</v>
+        <v>58553</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>91981</v>
+        <v>90550</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2390570937787511</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.187289069328284</v>
+        <v>0.189986918280788</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2984522485410743</v>
+        <v>0.2938066974802254</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>110</v>
@@ -2837,19 +2837,19 @@
         <v>74135</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>62093</v>
+        <v>61946</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>86905</v>
+        <v>86909</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.2409247008666487</v>
+        <v>0.2409247008666486</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2017914635344911</v>
+        <v>0.2013117827753461</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2824245884884787</v>
+        <v>0.2824394596634883</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>175</v>
@@ -2858,19 +2858,19 @@
         <v>147811</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>126923</v>
+        <v>128095</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>170002</v>
+        <v>169120</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2399901606489939</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.206075963244558</v>
+        <v>0.2079792615091979</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2760192977657792</v>
+        <v>0.2745876860255681</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>18725</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10530</v>
+        <v>10349</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>34920</v>
+        <v>34760</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06075750744146337</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03416629035809355</v>
+        <v>0.03358016355862883</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1133047963641876</v>
+        <v>0.1127859166932682</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>53</v>
@@ -2908,19 +2908,19 @@
         <v>36747</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>28383</v>
+        <v>27172</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>47210</v>
+        <v>47547</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1194192669787847</v>
+        <v>0.1194192669787846</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09223897690722577</v>
+        <v>0.08830429976454499</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1534245570181011</v>
+        <v>0.1545179480052654</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>69</v>
@@ -2929,19 +2929,19 @@
         <v>55472</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>42001</v>
+        <v>42538</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>71860</v>
+        <v>72109</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09006524820188404</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0681939901970734</v>
+        <v>0.06906632351186394</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1166744971261311</v>
+        <v>0.1170775696884984</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>27711</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18642</v>
+        <v>17617</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>41882</v>
+        <v>41262</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.08991362152763649</v>
+        <v>0.08991362152763648</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06048904680123351</v>
+        <v>0.05716039728139657</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1358934017398516</v>
+        <v>0.133883326953789</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>38</v>
@@ -2979,19 +2979,19 @@
         <v>27644</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>19641</v>
+        <v>19832</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>37586</v>
+        <v>37777</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.08983909798209341</v>
+        <v>0.08983909798209339</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06382862083868801</v>
+        <v>0.06445010158741922</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1221459789904461</v>
+        <v>0.1227688450734469</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>62</v>
@@ -3000,19 +3000,19 @@
         <v>55355</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>43256</v>
+        <v>42588</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>74044</v>
+        <v>71765</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08987638915052147</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07023142848875966</v>
+        <v>0.06914686929428643</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1202194706656837</v>
+        <v>0.1165193860597119</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>10487</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5180</v>
+        <v>5095</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18303</v>
+        <v>19613</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03402678049862847</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01680601603470214</v>
+        <v>0.01653281047071568</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05938813771389349</v>
+        <v>0.06363970915127021</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>28</v>
@@ -3050,19 +3050,19 @@
         <v>22675</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>15492</v>
+        <v>15049</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>33225</v>
+        <v>32736</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.07368896974527289</v>
+        <v>0.07368896974527286</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05034473628755864</v>
+        <v>0.04890749777887535</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.107974013046391</v>
+        <v>0.1063872758457598</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>38</v>
@@ -3071,19 +3071,19 @@
         <v>33162</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>23333</v>
+        <v>23145</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>45747</v>
+        <v>45127</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05384223045443592</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03788350658678933</v>
+        <v>0.03757869274377126</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07427578390702672</v>
+        <v>0.07326877878891229</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>6725</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2910</v>
+        <v>2265</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13739</v>
+        <v>13387</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02182161139186949</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.009443539993905084</v>
+        <v>0.007349061167456342</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04458017719964586</v>
+        <v>0.04343516743386316</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -3121,19 +3121,19 @@
         <v>11188</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6717</v>
+        <v>6774</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>18913</v>
+        <v>18827</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.03635853543893639</v>
+        <v>0.03635853543893638</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02182737251323425</v>
+        <v>0.02201510190485835</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06146419654077485</v>
+        <v>0.06118344804767081</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -3142,19 +3142,19 @@
         <v>17913</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10848</v>
+        <v>11022</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>27612</v>
+        <v>27456</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02908433935614591</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01761242458921045</v>
+        <v>0.0178957806353954</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04483079834042435</v>
+        <v>0.04457783070901626</v>
       </c>
     </row>
     <row r="38">
@@ -3246,19 +3246,19 @@
         <v>947371</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>896820</v>
+        <v>900128</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1000075</v>
+        <v>999085</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.503672538714471</v>
+        <v>0.5036725387144709</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4767972884990564</v>
+        <v>0.4785558783435581</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5316930086771087</v>
+        <v>0.5311663616874814</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>937</v>
@@ -3267,19 +3267,19 @@
         <v>727588</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>692319</v>
+        <v>691510</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>761013</v>
+        <v>762241</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.496332073764618</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.4722733227269975</v>
+        <v>0.4717211458299547</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.5191335502484565</v>
+        <v>0.5199710330965551</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1731</v>
@@ -3288,19 +3288,19 @@
         <v>1674958</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1620420</v>
+        <v>1615455</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1732037</v>
+        <v>1731036</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.5004574008667622</v>
+        <v>0.500457400866762</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.4841620187529587</v>
+        <v>0.4826784783270593</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5175118952962743</v>
+        <v>0.5172128297169536</v>
       </c>
     </row>
     <row r="40">
@@ -3317,19 +3317,19 @@
         <v>431719</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>394022</v>
+        <v>392637</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>472359</v>
+        <v>470610</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2295245968204127</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2094827984280457</v>
+        <v>0.2087468442019509</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2511311515771992</v>
+        <v>0.2502010333025521</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>493</v>
@@ -3338,19 +3338,19 @@
         <v>336268</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>306120</v>
+        <v>308652</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>364965</v>
+        <v>364960</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.229389341861665</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2088231724385237</v>
+        <v>0.2105501287144646</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2489646998952864</v>
+        <v>0.2489618508531767</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>891</v>
@@ -3359,19 +3359,19 @@
         <v>767987</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>720190</v>
+        <v>720810</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>816663</v>
+        <v>817499</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2294653548868389</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2151841990941338</v>
+        <v>0.2153693306840685</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2440090450580788</v>
+        <v>0.2442590131216981</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>163774</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>136374</v>
+        <v>138492</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>194208</v>
+        <v>194938</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.08707086096589023</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0725034317424729</v>
+        <v>0.07362944246981697</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.103251447025762</v>
+        <v>0.1036395476224453</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>172</v>
@@ -3409,19 +3409,19 @@
         <v>125013</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>108021</v>
+        <v>108739</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>143583</v>
+        <v>144568</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.08527923488571426</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07368783630668656</v>
+        <v>0.07417754973875611</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09794692019551957</v>
+        <v>0.09861867272852672</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>311</v>
@@ -3430,19 +3430,19 @@
         <v>288787</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>256288</v>
+        <v>255552</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>326240</v>
+        <v>326901</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08628612527698387</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07657573835414587</v>
+        <v>0.07635590819554972</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09747651270223853</v>
+        <v>0.09767416685469255</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>179338</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>152010</v>
+        <v>152342</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>209092</v>
+        <v>209422</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.09534563243747154</v>
+        <v>0.09534563243747152</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08081642686556149</v>
+        <v>0.08099326829472082</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1111645181251185</v>
+        <v>0.1113395949345866</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>180</v>
@@ -3480,19 +3480,19 @@
         <v>134501</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>115695</v>
+        <v>116626</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>155407</v>
+        <v>154641</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09175134275344995</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07892269929274956</v>
+        <v>0.07955778685186234</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1060129679358722</v>
+        <v>0.1054903215559266</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>330</v>
@@ -3501,19 +3501,19 @@
         <v>313839</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>282525</v>
+        <v>278550</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>351365</v>
+        <v>350186</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0937713266029401</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08441521470698052</v>
+        <v>0.08322729095238186</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1049836624376177</v>
+        <v>0.1046314864707892</v>
       </c>
     </row>
     <row r="43">
@@ -3530,19 +3530,19 @@
         <v>98896</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>78353</v>
+        <v>78979</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>124548</v>
+        <v>124414</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05257826406261085</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04165658063870467</v>
+        <v>0.04198945448297452</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06621643153622468</v>
+        <v>0.06614506048783285</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>128</v>
@@ -3551,19 +3551,19 @@
         <v>104332</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>87841</v>
+        <v>85971</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>123850</v>
+        <v>124845</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.07117148371869192</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05992166732725704</v>
+        <v>0.05864616406956372</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08448546297858156</v>
+        <v>0.0851645824668438</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>215</v>
@@ -3572,19 +3572,19 @@
         <v>203228</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>177931</v>
+        <v>175664</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>238183</v>
+        <v>234682</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.06072213023940191</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05316363427555965</v>
+        <v>0.05248615355560027</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07116611004371251</v>
+        <v>0.07012003818742697</v>
       </c>
     </row>
     <row r="44">
@@ -3601,19 +3601,19 @@
         <v>59829</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>45129</v>
+        <v>45618</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>79383</v>
+        <v>78044</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03180810699914383</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02399290191500958</v>
+        <v>0.02425273481483185</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04220414240985726</v>
+        <v>0.04149258168021065</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>50</v>
@@ -3622,19 +3622,19 @@
         <v>38226</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>29083</v>
+        <v>28928</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>49878</v>
+        <v>48917</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.026076523015861</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01983902995128303</v>
+        <v>0.01973353194171079</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03402455729514799</v>
+        <v>0.0333690631213331</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>100</v>
@@ -3643,19 +3643,19 @@
         <v>98055</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>79502</v>
+        <v>79187</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>118219</v>
+        <v>118730</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02929766212707305</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02375418064907506</v>
+        <v>0.02366003560174679</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03532230981088143</v>
+        <v>0.03547505505553238</v>
       </c>
     </row>
     <row r="45">
